--- a/LabVIEW/Statestik/Måling af resonansfrekvens/ballon516g(u_holder).xlsx
+++ b/LabVIEW/Statestik/Måling af resonansfrekvens/ballon516g(u_holder).xlsx
@@ -5,23 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jannie\Desktop\Diagrammer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jannie\Documents\GitHub\BachelorprojektBravo\LabVIEW\Statestik\Måling af resonansfrekvens\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="ballonikammer516gm2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Gennemsnit</t>
+  </si>
+  <si>
+    <t>standav</t>
   </si>
 </sst>
 </file>
@@ -843,11 +846,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129922736"/>
-        <c:axId val="129930184"/>
+        <c:axId val="111451272"/>
+        <c:axId val="111452840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129922736"/>
+        <c:axId val="111451272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +967,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129930184"/>
+        <c:crossAx val="111452840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129930184"/>
+        <c:axId val="111452840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1083,7 +1086,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129922736"/>
+        <c:crossAx val="111451272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -1987,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,6 +2161,15 @@
         <v>201.62</v>
       </c>
     </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>STDEV(A1:AY1)</f>
+        <v>4.052233951785114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
